--- a/2nd_sem/582_structurePerdiction/hw1/2b.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw1/2b.xlsx
@@ -1790,6 +1790,580 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Ocr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Testing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.433196591984853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46824445145682098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44840643736194302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46750815188808198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45398127695382301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46721363206058603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.428063532134216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47848953402755801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47989902177343002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46416324813295401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51418954454612298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50781529399389902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47297780582728499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43054591353739302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50617439781213802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50760492268854496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50022088987062097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51580940359734895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47686967497633298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46527821605133002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49489849584516599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.514778584201115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50773114547175702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51824971073945503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53219732828442201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51505206689807503</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53979173240769895</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51221205427579597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51877563900283996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49498264436730799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49515094141159099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49639213211317901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52590722625433795</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49611864941621903</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49220574313663601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51623014620805696</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53343851898601002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52531818659934704</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52317239928473702</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52424529294204203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53531082360366</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49315241401072801</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51959608709371996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.50005259282633796</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.50792047964657605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.50120963500578497</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52784264226359501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53575260334490304</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51930156726622401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54059114336804404</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51078152939938903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53741453665719996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52599137477647995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.50198800883559402</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53131376880193504</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51225412853686703</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.545324497738508</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.53209214263174498</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.53045124644998398</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.54521931208583096</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.52630693173451104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54643946565688395</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.537856316398443</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54149573998106604</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.52982013253392202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.52108972336173298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.53524771221205403</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.52399284737561802</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.54000210371305302</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53074576627747905</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.53550015777847904</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.52144735458083502</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53249184811191697</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.53287051646155403</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.51029767539707505</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.54587146313242796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.511580940359734</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53983380666877001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.516587777427158</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.53653097717471299</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54170611128641999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.55712632796886497</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53537393499526598</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.52624382034290496</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.53017776375302395</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55327653308088698</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.526033449037551</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.53106132323551003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52050068370674196</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.54519827495529605</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.545324497738508</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.55262438203428998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52456084990007301</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.530135689491953</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.53981276953823498</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.54128536867571198</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.54313663616282704</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.51965919848532605</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.53913958136110196</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.52948353844535601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EFE-4AD4-8453-A8C0971B93E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="475615016"/>
+        <c:axId val="475615344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475615016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475615344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475615344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475615016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1910,6 +2484,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2943,6 +3557,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3563,6 +4693,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A204E6-08BD-40F2-AD3B-D1D2EC049179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3868,15 +5034,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.67372060857537996</v>
       </c>
@@ -3886,8 +5052,11 @@
       <c r="D1">
         <v>0.47953216374268998</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <v>0.433196591984853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.70871369294605802</v>
       </c>
@@ -3897,8 +5066,11 @@
       <c r="D2">
         <v>0.52133419969677197</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0.46824445145682098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.69917012448132698</v>
       </c>
@@ -3908,8 +5080,11 @@
       <c r="D3">
         <v>0.50032488628979799</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0.44840643736194302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.69045643153526903</v>
       </c>
@@ -3919,8 +5094,11 @@
       <c r="D4">
         <v>0.53736192332683497</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.46750815188808198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.67786998616874095</v>
       </c>
@@ -3930,8 +5108,11 @@
       <c r="D5">
         <v>0.52523283517435504</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.45398127695382301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.68616874135546302</v>
       </c>
@@ -3941,8 +5122,11 @@
       <c r="D6">
         <v>0.53497942386831199</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0.46721363206058603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.69336099585062205</v>
       </c>
@@ -3952,8 +5136,11 @@
       <c r="D7">
         <v>0.487762616417587</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.428063532134216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.68271092669432898</v>
       </c>
@@ -3963,8 +5150,11 @@
       <c r="D8">
         <v>0.54884123889971803</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0.47848953402755801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.698755186721991</v>
       </c>
@@ -3974,8 +5164,11 @@
       <c r="D9">
         <v>0.55403941953649505</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0.47989902177343002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.71134163208851997</v>
       </c>
@@ -3985,8 +5178,11 @@
       <c r="D10">
         <v>0.53866146848602903</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.46416324813295401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.69986168741355403</v>
       </c>
@@ -3996,8 +5192,11 @@
       <c r="D11">
         <v>0.59389213775178595</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.51418954454612298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.69114799446749597</v>
       </c>
@@ -4007,8 +5206,11 @@
       <c r="D12">
         <v>0.589993502274204</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0.50781529399389902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.687966804979253</v>
       </c>
@@ -4018,8 +5220,11 @@
       <c r="D13">
         <v>0.53519601472817802</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0.47297780582728499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.697372060857538</v>
       </c>
@@ -4029,8 +5234,11 @@
       <c r="D14">
         <v>0.49859215941087198</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>0.43054591353739302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.70484094052558699</v>
       </c>
@@ -4040,8 +5248,11 @@
       <c r="D15">
         <v>0.59454191033138404</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>0.50617439781213802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.70152143845089898</v>
       </c>
@@ -4051,8 +5262,11 @@
       <c r="D16">
         <v>0.58457873077756095</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0.50760492268854496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.68547717842323597</v>
       </c>
@@ -4062,8 +5276,11 @@
       <c r="D17">
         <v>0.582412822178904</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0.50022088987062097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.68022130013831195</v>
       </c>
@@ -4073,8 +5290,11 @@
       <c r="D18">
         <v>0.59974009096816105</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0.51580940359734895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.69709543568464705</v>
       </c>
@@ -4084,8 +5304,11 @@
       <c r="D19">
         <v>0.55750487329434695</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0.47686967497633298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.69225449515905901</v>
       </c>
@@ -4095,8 +5318,11 @@
       <c r="D20">
         <v>0.54299328568334404</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0.46527821605133002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.70027662517289002</v>
       </c>
@@ -4106,8 +5332,11 @@
       <c r="D21">
         <v>0.57894736842105199</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>0.49489849584516599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.69557399723374802</v>
       </c>
@@ -4117,8 +5346,11 @@
       <c r="D22">
         <v>0.60147281784708595</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0.514778584201115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.69128630705394101</v>
       </c>
@@ -4128,8 +5360,11 @@
       <c r="D23">
         <v>0.59237600173272598</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>0.50773114547175702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.69349930843706697</v>
       </c>
@@ -4139,8 +5374,11 @@
       <c r="D24">
         <v>0.60840372536278897</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0.51824971073945503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.69253112033194997</v>
       </c>
@@ -4150,8 +5388,11 @@
       <c r="D25">
         <v>0.62053281351526901</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0.53219732828442201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.70207468879668</v>
       </c>
@@ -4161,8 +5402,11 @@
       <c r="D26">
         <v>0.60818713450292305</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0.51505206689807503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.69446749654218498</v>
       </c>
@@ -4172,8 +5416,11 @@
       <c r="D27">
         <v>0.63114576564868896</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0.53979173240769895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.68589211618257195</v>
       </c>
@@ -4183,8 +5430,11 @@
       <c r="D28">
         <v>0.59627463721030904</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0.51221205427579597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.69253112033194997</v>
       </c>
@@ -4194,8 +5444,11 @@
       <c r="D29">
         <v>0.60342213558587798</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0.51877563900283996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.69225449515905901</v>
       </c>
@@ -4205,8 +5458,11 @@
       <c r="D30">
         <v>0.58111327701970905</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>0.49498264436730799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.69930843706777301</v>
       </c>
@@ -4216,8 +5472,11 @@
       <c r="D31">
         <v>0.57851418670132104</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0.49515094141159099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.69571230982019305</v>
       </c>
@@ -4227,8 +5486,11 @@
       <c r="D32">
         <v>0.58003032272038102</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>0.49639213211317901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.69045643153526903</v>
       </c>
@@ -4238,8 +5500,11 @@
       <c r="D33">
         <v>0.617933723196881</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>0.52590722625433795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.69681881051175598</v>
       </c>
@@ -4249,8 +5514,11 @@
       <c r="D34">
         <v>0.58024691358024605</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>0.49611864941621903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.695020746887966</v>
       </c>
@@ -4260,8 +5528,11 @@
       <c r="D35">
         <v>0.58003032272038102</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>0.49220574313663601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.70124481327800803</v>
       </c>
@@ -4271,8 +5542,11 @@
       <c r="D36">
         <v>0.61316872427983504</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0.51623014620805696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.68921161825726096</v>
       </c>
@@ -4282,8 +5556,11 @@
       <c r="D37">
         <v>0.62746372103097203</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>0.53343851898601002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.70248962655601599</v>
       </c>
@@ -4293,8 +5570,11 @@
       <c r="D38">
         <v>0.62291531297379199</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>0.52531818659934704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.698755186721991</v>
       </c>
@@ -4304,8 +5584,11 @@
       <c r="D39">
         <v>0.62334849469352305</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>0.52317239928473702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.69349930843706697</v>
       </c>
@@ -4315,8 +5598,11 @@
       <c r="D40">
         <v>0.61468486029889502</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>0.52424529294204203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.705809128630705</v>
       </c>
@@ -4326,8 +5612,11 @@
       <c r="D41">
         <v>0.63374485596707797</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>0.53531082360366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.69944674965421805</v>
       </c>
@@ -4337,8 +5626,11 @@
       <c r="D42">
         <v>0.58219623131903797</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>0.49315241401072801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.69681881051175598</v>
       </c>
@@ -4348,8 +5640,11 @@
       <c r="D43">
         <v>0.61771713233701497</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>0.51959608709371996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.69197786998616795</v>
       </c>
@@ -4359,8 +5654,11 @@
       <c r="D44">
         <v>0.59302577431232395</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>0.50005259282633796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.70746887966804906</v>
       </c>
@@ -4370,8 +5668,11 @@
       <c r="D45">
         <v>0.60797054364305803</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>0.50792047964657605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.68367911479944599</v>
       </c>
@@ -4381,8 +5682,11 @@
       <c r="D46">
         <v>0.59800736408923505</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>0.50120963500578497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.70926694329183904</v>
       </c>
@@ -4392,8 +5696,11 @@
       <c r="D47">
         <v>0.62204894953432899</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>0.52784264226359501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.68118948824342995</v>
       </c>
@@ -4403,8 +5710,11 @@
       <c r="D48">
         <v>0.63850985488412304</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>0.53575260334490304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.68146611341632002</v>
       </c>
@@ -4414,8 +5724,11 @@
       <c r="D49">
         <v>0.61988304093567204</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>0.51930156726622401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.705809128630705</v>
       </c>
@@ -4425,8 +5738,11 @@
       <c r="D50">
         <v>0.64219189950184097</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>0.54059114336804404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.69986168741355403</v>
       </c>
@@ -4436,8 +5752,11 @@
       <c r="D51">
         <v>0.61490145115876105</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>0.51078152939938903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.68229598893499299</v>
       </c>
@@ -4447,8 +5766,11 @@
       <c r="D52">
         <v>0.642408490361706</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>0.53741453665719996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.69695712309820101</v>
       </c>
@@ -4458,8 +5780,11 @@
       <c r="D53">
         <v>0.62291531297379199</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>0.52599137477647995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.716182572614107</v>
       </c>
@@ -4469,8 +5794,11 @@
       <c r="D54">
         <v>0.59974009096816105</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>0.50198800883559402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.692669432918395</v>
       </c>
@@ -4480,8 +5808,11 @@
       <c r="D55">
         <v>0.63092917478882304</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>0.53131376880193504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.70290456431535198</v>
       </c>
@@ -4491,8 +5822,11 @@
       <c r="D56">
         <v>0.61360190599956599</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>0.51225412853686703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.69377593360995804</v>
       </c>
@@ -4502,8 +5836,11 @@
       <c r="D57">
         <v>0.65237166991552897</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>0.545324497738508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.69681881051175598</v>
       </c>
@@ -4513,8 +5850,11 @@
       <c r="D58">
         <v>0.633961446826943</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>0.53209214263174498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.68755186721991701</v>
       </c>
@@ -4524,8 +5864,11 @@
       <c r="D59">
         <v>0.63266190166774905</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>0.53045124644998398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.68699861687413499</v>
       </c>
@@ -4535,8 +5878,11 @@
       <c r="D60">
         <v>0.65193848819579803</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>0.54521931208583096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.68865836791147905</v>
       </c>
@@ -4546,8 +5892,11 @@
       <c r="D61">
         <v>0.63136235650855499</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>0.52630693173451104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.70359612724757903</v>
       </c>
@@ -4557,8 +5906,11 @@
       <c r="D62">
         <v>0.65237166991552897</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>0.54643946565688395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.69308437067773099</v>
       </c>
@@ -4568,8 +5920,11 @@
       <c r="D63">
         <v>0.64197530864197505</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>0.537856316398443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.69405255878284899</v>
       </c>
@@ -4579,8 +5934,11 @@
       <c r="D64">
         <v>0.63807667316439198</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>0.54149573998106604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.68533886583679104</v>
       </c>
@@ -4590,8 +5948,11 @@
       <c r="D65">
         <v>0.63721030972492898</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>0.52982013253392202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.68713692946058003</v>
       </c>
@@ -4601,8 +5962,11 @@
       <c r="D66">
         <v>0.62053281351526901</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>0.52108972336173298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.68852005532503402</v>
       </c>
@@ -4612,8 +5976,11 @@
       <c r="D67">
         <v>0.63417803768680903</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>0.53524771221205403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.67206085753803602</v>
       </c>
@@ -4623,8 +5990,11 @@
       <c r="D68">
         <v>0.63071258392895801</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>0.52399284737561802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.70193637621023497</v>
       </c>
@@ -4634,8 +6004,11 @@
       <c r="D69">
         <v>0.63721030972492898</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>0.54000210371305302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.69377593360995804</v>
       </c>
@@ -4645,8 +6018,11 @@
       <c r="D70">
         <v>0.63417803768680903</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>0.53074576627747905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.68948824343015203</v>
       </c>
@@ -4656,8 +6032,11 @@
       <c r="D71">
         <v>0.63677712800519803</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>0.53550015777847904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.71120331950207405</v>
       </c>
@@ -4667,8 +6046,11 @@
       <c r="D72">
         <v>0.62616417587177797</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>0.52144735458083502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.68478561549100903</v>
       </c>
@@ -4678,8 +6060,11 @@
       <c r="D73">
         <v>0.63526099198613795</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>0.53249184811191697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.685615491009681</v>
       </c>
@@ -4689,8 +6074,11 @@
       <c r="D74">
         <v>0.63980940004331799</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>0.53287051646155403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.69792531120331902</v>
       </c>
@@ -4700,8 +6088,11 @@
       <c r="D75">
         <v>0.61425167857916396</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>0.51029767539707505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.68533886583679104</v>
       </c>
@@ -4711,8 +6102,11 @@
       <c r="D76">
         <v>0.65020576131687202</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>0.54587146313242796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.67538035961272402</v>
       </c>
@@ -4722,8 +6116,11 @@
       <c r="D77">
         <v>0.607753952783192</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>0.511580940359734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.70899031811894797</v>
       </c>
@@ -4733,8 +6130,11 @@
       <c r="D78">
         <v>0.63937621832358604</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>0.53983380666877001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.68782849239280697</v>
       </c>
@@ -4744,8 +6144,11 @@
       <c r="D79">
         <v>0.617067359757418</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>0.516587777427158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.70885200553250305</v>
       </c>
@@ -4755,8 +6158,11 @@
       <c r="D80">
         <v>0.64219189950184097</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>0.53653097717471299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.69308437067773099</v>
       </c>
@@ -4766,8 +6172,11 @@
       <c r="D81">
         <v>0.65150530647606597</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>0.54170611128641999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.68118948824342995</v>
       </c>
@@ -4777,8 +6186,11 @@
       <c r="D82">
         <v>0.67121507472384601</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>0.55712632796886497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.69806362378976405</v>
       </c>
@@ -4788,8 +6200,11 @@
       <c r="D83">
         <v>0.64197530864197505</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>0.53537393499526598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.68035961272475798</v>
       </c>
@@ -4799,8 +6214,11 @@
       <c r="D84">
         <v>0.63612735542560095</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>0.52624382034290496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.695020746887966</v>
       </c>
@@ -4810,8 +6228,11 @@
       <c r="D85">
         <v>0.63526099198613795</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>0.53017776375302395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.69336099585062205</v>
       </c>
@@ -4821,8 +6242,11 @@
       <c r="D86">
         <v>0.66146848602988895</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>0.55327653308088698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.68478561549100903</v>
       </c>
@@ -4832,8 +6256,11 @@
       <c r="D87">
         <v>0.63287849252761497</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>0.526033449037551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.70013831258644499</v>
       </c>
@@ -4843,8 +6270,11 @@
       <c r="D88">
         <v>0.63331167424734602</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>0.53106132323551003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.68658367911479901</v>
       </c>
@@ -4854,8 +6284,11 @@
       <c r="D89">
         <v>0.63114576564868896</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>0.52050068370674196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.68589211618257195</v>
       </c>
@@ -4865,8 +6298,11 @@
       <c r="D90">
         <v>0.65843621399176899</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>0.54519827495529605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.69073305670815999</v>
       </c>
@@ -4876,8 +6312,11 @@
       <c r="D91">
         <v>0.64998917045700599</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>0.545324497738508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.68962655601659695</v>
       </c>
@@ -4887,8 +6326,11 @@
       <c r="D92">
         <v>0.66991552956465195</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>0.55262438203428998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.69778699861687399</v>
       </c>
@@ -4898,8 +6340,11 @@
       <c r="D93">
         <v>0.62746372103097203</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>0.52456084990007301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.70069156293222601</v>
       </c>
@@ -4909,8 +6354,11 @@
       <c r="D94">
         <v>0.633961446826943</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>0.530135689491953</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.70663900414937697</v>
       </c>
@@ -4920,8 +6368,11 @@
       <c r="D95">
         <v>0.652588260775395</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>0.53981276953823498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.70733056708160402</v>
       </c>
@@ -4931,8 +6382,11 @@
       <c r="D96">
         <v>0.65583712367338098</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>0.54128536867571198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.69834024896265501</v>
       </c>
@@ -4942,8 +6396,11 @@
       <c r="D97">
         <v>0.65367121507472303</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>0.54313663616282704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.69695712309820101</v>
       </c>
@@ -4953,8 +6410,11 @@
       <c r="D98">
         <v>0.61966645007580601</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>0.51965919848532605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.690318118948824</v>
       </c>
@@ -4964,8 +6424,11 @@
       <c r="D99">
         <v>0.64803985271821496</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>0.53913958136110196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.70926694329183904</v>
       </c>
@@ -4974,6 +6437,9 @@
       </c>
       <c r="D100">
         <v>0.63894303660385499</v>
+      </c>
+      <c r="E100">
+        <v>0.52948353844535601</v>
       </c>
     </row>
   </sheetData>

--- a/2nd_sem/582_structurePerdiction/hw1/2b.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw1/2b.xlsx
@@ -5036,7 +5036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E100"/>
     </sheetView>
   </sheetViews>
